--- a/src/zh/openpyxl/data/filters/Test.xlsx
+++ b/src/zh/openpyxl/data/filters/Test.xlsx
@@ -4,18 +4,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Trees" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Teachers" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Games" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Dates" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Trees'!$A$1:$C$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Teachers'!$A$1:$B$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Games'!$A$1:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Dates'!$A$1:$A$5</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
@@ -23,7 +25,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="13">
     <font>
       <name val="微软雅黑"/>
@@ -140,7 +144,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -178,6 +182,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -209,6 +216,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -460,25 +470,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="13">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="14">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>小小</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="13">
-      <c r="A2" s="14" t="inlineStr">
+    <row r="2" ht="12.8" customHeight="1" s="14">
+      <c r="A2" s="15" t="inlineStr">
         <is>
           <t>李小龙</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>男</t>
         </is>
@@ -523,107 +533,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="13">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="14">
+      <c r="A1" s="16" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="16" t="inlineStr">
         <is>
           <t>字母</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>平均高度</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="13">
-      <c r="A2" s="16" t="inlineStr">
+    <row r="2" ht="12.8" customHeight="1" s="14">
+      <c r="A2" s="17" t="inlineStr">
         <is>
           <t>柳树</t>
         </is>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="15" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="D2" s="14" t="n">
+      <c r="D2" s="15" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="13">
-      <c r="A3" s="17" t="inlineStr">
+    <row r="3" ht="12.8" customHeight="1" s="14">
+      <c r="A3" s="18" t="inlineStr">
         <is>
           <t>大树</t>
         </is>
       </c>
-      <c r="B3" s="18" t="n">
+      <c r="B3" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="14" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="13">
-      <c r="A4" s="19" t="inlineStr">
+    <row r="4" ht="12.8" customHeight="1" s="14">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>苹果树</t>
         </is>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="D4" s="21" t="n">
+      <c r="D4" s="22" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="13">
-      <c r="A5" s="22" t="inlineStr">
+    <row r="5" ht="12.8" customHeight="1" s="14">
+      <c r="A5" s="23" t="inlineStr">
         <is>
           <t>梨树</t>
         </is>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="24" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" ht="12.8" customHeight="1" s="13">
-      <c r="B6" s="14" t="n">
+    <row r="6" ht="12.8" customHeight="1" s="14">
+      <c r="B6" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="C6" s="15" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="15" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -657,45 +667,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="13">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="14">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>姓名</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>年龄</t>
         </is>
       </c>
     </row>
-    <row r="2" hidden="1" ht="12.8" customHeight="1" s="13">
-      <c r="A2" s="14" t="inlineStr">
+    <row r="2" hidden="1" ht="12.8" customHeight="1" s="14">
+      <c r="A2" s="15" t="inlineStr">
         <is>
           <t>大刚</t>
         </is>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="15" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="3" hidden="1" ht="12.8" customHeight="1" s="13">
-      <c r="A3" s="14" t="inlineStr">
+    <row r="3" hidden="1" ht="12.8" customHeight="1" s="14">
+      <c r="A3" s="15" t="inlineStr">
         <is>
           <t>小刚</t>
         </is>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="15" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="13">
-      <c r="A4" s="14" t="inlineStr">
+    <row r="4" ht="12.8" customHeight="1" s="14">
+      <c r="A4" s="15" t="inlineStr">
         <is>
           <t>大明</t>
         </is>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="15" t="n">
         <v>40</v>
       </c>
     </row>
@@ -734,74 +744,72 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="12.93" customWidth="1" style="14" min="1" max="1"/>
+    <col width="12.93" customWidth="1" style="15" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="13">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="14">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="13">
-      <c r="A2" s="14" t="inlineStr">
+    <row r="2" ht="12.8" customHeight="1" s="14">
+      <c r="A2" s="15" t="inlineStr">
         <is>
           <t>疯狂赛车</t>
         </is>
       </c>
-      <c r="B2" s="14" t="n">
+      <c r="B2" s="15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="13">
-      <c r="A3" s="14" t="inlineStr">
+    <row r="3" ht="12.8" customHeight="1" s="14">
+      <c r="A3" s="15" t="inlineStr">
         <is>
           <t>疯狂自行车</t>
         </is>
       </c>
-      <c r="B3" s="14" t="n">
+      <c r="B3" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="13">
-      <c r="A4" s="14" t="inlineStr">
+    <row r="4" ht="12.8" customHeight="1" s="14">
+      <c r="A4" s="15" t="inlineStr">
         <is>
           <t>不疯狂的赛车</t>
         </is>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="15" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="13">
-      <c r="A5" s="14" t="inlineStr">
+    <row r="5" ht="12.8" customHeight="1" s="14">
+      <c r="A5" s="15" t="inlineStr">
         <is>
           <t>不疯狂的自行车</t>
         </is>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="15" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B5">
-    <filterColumn colId="0" hiddenButton="0" showButton="1">
-      <customFilters>
-        <customFilter val="*自~?车*" operator="equal"/>
-      </customFilters>
-    </filterColumn>
+    <sortState ref="A1:B5">
+      <sortCondition descending="1" ref="A1:B100"/>
+    </sortState>
   </autoFilter>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -815,4 +823,61 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="14">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="14">
+      <c r="A2" s="25" t="n">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="14">
+      <c r="A3" s="25" t="n">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="14">
+      <c r="A4" s="25" t="n">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="14">
+      <c r="A5" s="25" t="n">
+        <v>45323</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12 页 &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>